--- a/data/n2v/tables/model-1200-1325-20230810-19.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230810-19.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         </is>
       </c>
       <c r="C648" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         </is>
       </c>
       <c r="C870" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         </is>
       </c>
       <c r="C872" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="C881" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         </is>
       </c>
       <c r="C902" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         </is>
       </c>
       <c r="C932" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         </is>
       </c>
       <c r="C935" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         </is>
       </c>
       <c r="C937" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         </is>
       </c>
       <c r="C941" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         </is>
       </c>
       <c r="C943" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -17416,7 +17416,7 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         </is>
       </c>
       <c r="C947" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -17956,7 +17956,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="C989" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1097" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1106" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1110" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1116" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1117" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1118" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1120" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1131" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1133" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1134" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1137" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1142" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1148" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1149" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         </is>
       </c>
       <c r="C1153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1153" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1154" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
@@ -21340,7 +21340,7 @@
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1162" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1167" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1168" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1180" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1187" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         </is>
       </c>
       <c r="C1188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1188" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1193" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         </is>
       </c>
       <c r="C1200" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1200" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1202" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1203" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         </is>
       </c>
       <c r="C1205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1205" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         </is>
       </c>
       <c r="C1206" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1206" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1207" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1209" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1213" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         </is>
       </c>
       <c r="C1227" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1227" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="C1229" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1229" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         </is>
       </c>
       <c r="C1232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1232" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1233" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1235" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         </is>
       </c>
       <c r="C1242" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1242" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="C1250" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1250" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1256" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1262" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1264" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1266" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         </is>
       </c>
       <c r="C1267" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1267" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         </is>
       </c>
       <c r="C1277" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1277" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1280" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         </is>
       </c>
       <c r="C1283" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         </is>
       </c>
       <c r="C1284" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1284" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         </is>
       </c>
       <c r="C1285" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1285" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         </is>
       </c>
       <c r="C1288" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1288" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         </is>
       </c>
       <c r="C1290" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1290" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         </is>
       </c>
       <c r="C1292" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1292" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         </is>
       </c>
       <c r="C1293" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1293" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         </is>
       </c>
       <c r="C1294" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1294" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1296" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1301" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         </is>
       </c>
       <c r="C1307" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1307" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1309" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         </is>
       </c>
       <c r="C1310" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1310" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         </is>
       </c>
       <c r="C1312" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1312" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         </is>
       </c>
       <c r="C1314" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1314" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1318" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         </is>
       </c>
       <c r="C1319" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1319" t="inlineStr">
         <is>
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="C1330" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1330" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         </is>
       </c>
       <c r="C1331" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1331" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         </is>
       </c>
       <c r="C1334" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1334" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         </is>
       </c>
       <c r="C1342" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1342" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         </is>
       </c>
       <c r="C1344" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1344" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         </is>
       </c>
       <c r="C1351" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1351" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1354" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1363" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         </is>
       </c>
       <c r="C1369" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1369" t="inlineStr">
         <is>
@@ -25084,7 +25084,7 @@
         </is>
       </c>
       <c r="C1370" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1370" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         </is>
       </c>
       <c r="C1372" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1372" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
         </is>
       </c>
       <c r="C1377" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1377" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
         </is>
       </c>
       <c r="C1382" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="C1387" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1387" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         </is>
       </c>
       <c r="C1392" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1392" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         </is>
       </c>
       <c r="C1395" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1395" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         </is>
       </c>
       <c r="C1396" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1396" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="C1404" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1404" t="inlineStr">
         <is>
@@ -25714,7 +25714,7 @@
         </is>
       </c>
       <c r="C1405" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1405" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         </is>
       </c>
       <c r="C1407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1407" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         </is>
       </c>
       <c r="C1408" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1408" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         </is>
       </c>
       <c r="C1412" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C1416" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1416" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1420" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         </is>
       </c>
       <c r="C1423" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1423" t="inlineStr">
         <is>
@@ -26110,7 +26110,7 @@
         </is>
       </c>
       <c r="C1427" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1427" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         </is>
       </c>
       <c r="C1430" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1430" t="inlineStr">
         <is>
@@ -26200,7 +26200,7 @@
         </is>
       </c>
       <c r="C1432" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1432" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         </is>
       </c>
       <c r="C1433" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1433" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         </is>
       </c>
       <c r="C1437" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D1437" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1439" t="inlineStr">
         <is>
@@ -26416,7 +26416,7 @@
         </is>
       </c>
       <c r="C1444" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1444" t="inlineStr">
         <is>
@@ -26524,7 +26524,7 @@
         </is>
       </c>
       <c r="C1450" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1450" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         </is>
       </c>
       <c r="C1456" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         </is>
       </c>
       <c r="C1457" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         </is>
       </c>
       <c r="C1463" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         </is>
       </c>
       <c r="C1464" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1464" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         </is>
       </c>
       <c r="C1465" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
